--- a/外部設計関連/外部設計書_機能名 - マイページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - マイページ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F74DE97-F3F7-40F1-8DD7-CD916F02321D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41673FB-C451-4A5D-936F-F9E0AD9C1FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -253,6 +253,126 @@
     <rPh sb="20" eb="22">
       <t>センイ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロフィール編集ボタン</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問編集ボタン</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロフィール表示欄</t>
+    <rPh sb="6" eb="9">
+      <t>ヒョウジラン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>自分の投稿した質問一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ロゴマーク</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ナビゲーションメニュー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ページタイトル</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>フッター</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>logo</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>navigationmenu</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>pagetitle</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>profile</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>postbutton</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>profile_display</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_table</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>link</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>table</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>image</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>nav_ul</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>h2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>p_footer</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>m_users</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>d_questions</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_id,user_name,user_category,company</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_title,q_contents,q_date,done_tag</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1582,6 +1702,480 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>65723</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>65723</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C655579-259B-4067-95D4-59995BE4643A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3532823" y="2750344"/>
+          <a:ext cx="247650" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>3</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>151448</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>151448</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C411AB44-6FFE-4736-A87A-FA36E7D654AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2627948" y="3769519"/>
+          <a:ext cx="247650" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>113348</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>73819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>113348</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10977FA-9171-4431-9F5A-5996DAC0672F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4075748" y="1597819"/>
+          <a:ext cx="247650" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>8573</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45244</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>8573</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="テキスト ボックス 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D2BF8F0-09CB-4CAE-9916-8C96201EDE2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="751523" y="1950244"/>
+          <a:ext cx="247650" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>218123</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>188119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>218123</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FA2844-A169-4B7C-9473-345248A1176E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="713423" y="2283619"/>
+          <a:ext cx="247650" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>151448</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>111919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>151448</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A7733D-4E01-42CE-8629-91D66DEBCB81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="646748" y="6017419"/>
+          <a:ext cx="247650" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1908,13 +2502,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AA82" sqref="AA82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.6640625" style="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -5213,19 +5809,29 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
@@ -5255,19 +5861,29 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>29</v>
+      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -5297,19 +5913,29 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="15">
+        <v>3</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -5317,11 +5943,15 @@
       <c r="T81" s="19"/>
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
-      <c r="W81" s="16"/>
+      <c r="W81" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
-      <c r="AA81" s="16"/>
+      <c r="AA81" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
       <c r="AD81" s="16"/>
@@ -5339,19 +5969,29 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="15">
+        <v>4</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
@@ -5359,11 +5999,15 @@
       <c r="T82" s="19"/>
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
-      <c r="W82" s="16"/>
+      <c r="W82" s="16" t="s">
+        <v>52</v>
+      </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
-      <c r="AA82" s="16"/>
+      <c r="AA82" s="16" t="s">
+        <v>54</v>
+      </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
       <c r="AD82" s="16"/>
@@ -5381,16 +6025,24 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>5</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16"/>
@@ -5423,19 +6075,29 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
+      <c r="C84" s="15">
+        <v>6</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
-      <c r="O84" s="16"/>
+      <c r="O84" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
@@ -5465,19 +6127,29 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16"/>
+      <c r="C85" s="15">
+        <v>7</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
+      <c r="H85" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
-      <c r="L85" s="16"/>
+      <c r="L85" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
-      <c r="O85" s="16"/>
+      <c r="O85" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>
@@ -5507,19 +6179,29 @@
     <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
+      <c r="C86" s="15">
+        <v>8</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
-      <c r="H86" s="16"/>
+      <c r="H86" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
-      <c r="L86" s="16"/>
+      <c r="L86" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
-      <c r="O86" s="16"/>
+      <c r="O86" s="16" t="s">
+        <v>50</v>
+      </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
       <c r="R86" s="19"/>

--- a/外部設計関連/外部設計書_機能名 - マイページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - マイページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41673FB-C451-4A5D-936F-F9E0AD9C1FBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AE1376-8663-4A2C-BE32-5D80DC8106CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2502,8 +2502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AA82" sqref="AA82"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/外部設計関連/外部設計書_機能名 - マイページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - マイページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6AE1376-8663-4A2C-BE32-5D80DC8106CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79048AEA-60F6-458D-A9BD-0736DD900AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -373,6 +373,36 @@
   </si>
   <si>
     <t>q_title,q_contents,q_date,done_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>マイページ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>プロフィール・自分の質問一覧と編集</t>
+    <rPh sb="7" eb="9">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>藤原夢乃</t>
+    <rPh sb="0" eb="2">
+      <t>フジワラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ユメノ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -748,7 +778,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -877,6 +907,9 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -900,15 +933,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>120968</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>134779</xdr:rowOff>
+      <xdr:colOff>69014</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>13552</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>120967</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>190240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -923,8 +956,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="871062" y="1468279"/>
-          <a:ext cx="8630125" cy="5129688"/>
+          <a:off x="900287" y="2109052"/>
+          <a:ext cx="9984190" cy="5129688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1285,16 +1318,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>231631</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>16192</xdr:rowOff>
+      <xdr:rowOff>50829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>138545</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121227</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1309,8 +1342,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3714750" y="2873692"/>
-          <a:ext cx="2234089" cy="505778"/>
+          <a:off x="4240790" y="2908329"/>
+          <a:ext cx="1292369" cy="260898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1338,18 +1371,9 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>プロフィール（</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ID</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID,</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>氏名、会社名、ユーザー種別）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1358,15 +1382,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>130968</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>243536</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>97414</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:colOff>112568</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>168852</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1381,8 +1405,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3881437" y="3500437"/>
-          <a:ext cx="1869282" cy="261938"/>
+          <a:off x="4806877" y="4097914"/>
+          <a:ext cx="2085759" cy="261938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1420,15 +1444,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>599641</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>178593</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:colOff>22729</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>154781</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1444,8 +1468,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2821781" y="3964781"/>
-          <a:ext cx="5107781" cy="952500"/>
+          <a:off x="3370550" y="4726781"/>
+          <a:ext cx="5648974" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1484,15 +1508,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>226218</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>113650</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>140970</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:colOff>28402</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>54118</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1507,8 +1531,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6977062" y="4000500"/>
-          <a:ext cx="914877" cy="261937"/>
+          <a:off x="8002082" y="4745181"/>
+          <a:ext cx="1023115" cy="261937"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1546,16 +1570,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>168591</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>164307</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>81999</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>168591</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>75248</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>81999</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>5976</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1570,8 +1594,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3669029" y="3402807"/>
-          <a:ext cx="250031" cy="291941"/>
+          <a:off x="4645340" y="3905035"/>
+          <a:ext cx="277091" cy="291941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1625,16 +1649,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>39529</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>35719</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>186735</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>174265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>39529</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>186735</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>90921</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1649,8 +1673,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6790373" y="3845719"/>
-          <a:ext cx="250031" cy="297656"/>
+          <a:off x="7798076" y="4555765"/>
+          <a:ext cx="277091" cy="297656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1704,16 +1728,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>65723</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>83344</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>57064</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>155862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>65723</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57064</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>43293</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1728,8 +1752,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3532823" y="2750344"/>
-          <a:ext cx="247650" cy="297656"/>
+          <a:off x="3789132" y="2441862"/>
+          <a:ext cx="277091" cy="268431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1784,15 +1808,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>150019</xdr:rowOff>
+      <xdr:colOff>359266</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>80746</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>82175</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>187902</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1807,8 +1831,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2627948" y="3769519"/>
-          <a:ext cx="247650" cy="297656"/>
+          <a:off x="3130175" y="4462246"/>
+          <a:ext cx="684068" cy="297656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2176,6 +2200,276 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>240290</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>163397</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>129887</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12F35E3-77F5-4DBE-B58A-FA0A3CA59CAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4249449" y="3401897"/>
+          <a:ext cx="1275052" cy="269558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>会社名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>222970</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>172056</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>173181</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>43295</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C3830A-E8A2-437D-A248-06A37744ED6D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5894675" y="3410556"/>
+          <a:ext cx="1335665" cy="252239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>ユーザー種別</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>222972</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>33511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>147206</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D946D359-2FAA-4FA5-A753-E2502B9E25FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5894677" y="2891011"/>
+          <a:ext cx="1309688" cy="269557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>氏名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>155863</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>69274</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="正方形/長方形 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87DE76D8-D502-4ED2-B3AD-B20EE8D6E66B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3939887" y="2632363"/>
+          <a:ext cx="3740728" cy="1307523"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="accent1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="95000"/>
+                  <a:lumOff val="5000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>プロフィール</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2503,14 +2797,14 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+      <selection activeCell="Y2" sqref="Y2:AE2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="10" width="3.6640625" style="1"/>
+    <col min="1" max="10" width="3.625" style="1"/>
     <col min="11" max="11" width="9" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="3.6640625" style="1"/>
+    <col min="12" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -2531,7 +2825,9 @@
       </c>
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
+      <c r="N1" s="31" t="s">
+        <v>55</v>
+      </c>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
       <c r="Q1" s="31"/>
@@ -2544,7 +2840,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
+      <c r="Y1" s="31" t="s">
+        <v>57</v>
+      </c>
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
       <c r="AB1" s="31"/>
@@ -2579,7 +2877,9 @@
       </c>
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
-      <c r="N2" s="41"/>
+      <c r="N2" s="41" t="s">
+        <v>56</v>
+      </c>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
       <c r="Q2" s="41"/>
@@ -2592,7 +2892,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="41"/>
-      <c r="Y2" s="41"/>
+      <c r="Y2" s="46">
+        <v>44356</v>
+      </c>
       <c r="Z2" s="41"/>
       <c r="AA2" s="41"/>
       <c r="AB2" s="41"/>

--- a/外部設計関連/外部設計書_機能名 - マイページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - マイページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79048AEA-60F6-458D-A9BD-0736DD900AA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B60040-B304-43E3-9F02-8D6EE2A76C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1309,7 +1309,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ページのタイトル</a:t>
+            <a:t>ページタイトル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>

--- a/外部設計関連/外部設計書_機能名 - マイページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - マイページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B60040-B304-43E3-9F02-8D6EE2A76C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D03A32-D722-484A-BB05-EDE266B94C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -270,20 +270,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>プロフィール表示欄</t>
-    <rPh sb="6" eb="9">
-      <t>ヒョウジラン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>自分の投稿した質問一覧</t>
-    <rPh sb="0" eb="2">
-      <t>ジブン</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>ロゴマーク</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -324,14 +310,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>profile_display</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>question_table</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>link</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -368,14 +346,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>user_id,user_name,user_category,company</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>q_title,q_contents,q_date,done_tag</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>マイページ</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -403,6 +373,154 @@
     <rPh sb="2" eb="4">
       <t>ユメノ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ユーザー種別</t>
+    <rPh sb="4" eb="6">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>会社名</t>
+    <rPh sb="0" eb="3">
+      <t>カイシャメイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>user_name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>user_category</t>
+  </si>
+  <si>
+    <t>user_category</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タイトル</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問内容</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問日時</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニチジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>タグ</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_title</t>
+  </si>
+  <si>
+    <t>q_contents</t>
+  </si>
+  <si>
+    <t>q_date</t>
+  </si>
+  <si>
+    <t>question_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_title</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>scroll_bar</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>スクロールバー</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>css_overflow</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>解決/未解決ラベル</t>
+    <rPh sb="0" eb="2">
+      <t>カイケツ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ミカイケツ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>solution_label</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag01~05</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>いくつタグをつけられるかわからない</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>done_tag</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -778,7 +896,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -895,6 +1013,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -907,8 +1028,8 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -933,15 +1054,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>69014</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>13552</xdr:rowOff>
+      <xdr:colOff>128545</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>132615</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>225136</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>190240</xdr:rowOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>10824</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>118803</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -956,8 +1077,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="900287" y="2109052"/>
-          <a:ext cx="9984190" cy="5129688"/>
+          <a:off x="950076" y="1275615"/>
+          <a:ext cx="9883529" cy="5129688"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1444,132 +1565,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>599641</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>22729</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29D02089-A20F-4BDD-8ACB-C8A07F002235}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3370550" y="4726781"/>
-          <a:ext cx="5648974" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>自分の投稿した質問の一覧表示</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>113650</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>173181</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>28402</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>54118</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="正方形/長方形 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF544D0-539A-4662-AB47-4A56EF64D889}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8002082" y="4745181"/>
-          <a:ext cx="1023115" cy="261937"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>編集ボタン</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>81999</xdr:colOff>
       <xdr:row>20</xdr:row>
@@ -1649,94 +1644,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>186735</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>174265</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>186735</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>90921</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="テキスト ボックス 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8BD450-CD2F-45C2-9AF3-FEA9E08163A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7798076" y="4555765"/>
-          <a:ext cx="277091" cy="297656"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>57064</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>235658</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>155862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>57064</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:colOff>235658</xdr:colOff>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>43293</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1752,8 +1668,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3789132" y="2441862"/>
-          <a:ext cx="277091" cy="268431"/>
+          <a:off x="3938502" y="2822862"/>
+          <a:ext cx="273844" cy="268431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1807,16 +1723,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>359266</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>80746</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>8573</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>93733</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>82175</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>187902</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10389</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1831,8 +1747,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3130175" y="4462246"/>
-          <a:ext cx="684068" cy="297656"/>
+          <a:off x="5628323" y="2760733"/>
+          <a:ext cx="336708" cy="297656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1886,16 +1802,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>113348</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>73819</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>196691</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>113348</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>196691</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>145256</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1910,8 +1826,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4075748" y="1597819"/>
-          <a:ext cx="247650" cy="297656"/>
+          <a:off x="3899535" y="3276600"/>
+          <a:ext cx="273844" cy="297656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1965,16 +1881,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>8573</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>45244</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>222885</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>8573</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>222885</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116681</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1989,8 +1905,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="751523" y="1950244"/>
-          <a:ext cx="247650" cy="297656"/>
+          <a:off x="5568791" y="3248025"/>
+          <a:ext cx="273844" cy="297656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2031,164 +1947,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>6</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>218123</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>188119</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>218123</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="テキスト ボックス 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FA2844-A169-4B7C-9473-345248A1176E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="713423" y="2283619"/>
-          <a:ext cx="247650" cy="297656"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>7</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>111919</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>151448</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="テキスト ボックス 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A7733D-4E01-42CE-8629-91D66DEBCB81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="646748" y="6017419"/>
-          <a:ext cx="247650" cy="297656"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>8</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -2394,6 +2152,74 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>216219</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>268433</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>154781</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C204A4-E07B-4936-BE3A-4AA72B8CEC8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2954657" y="4554682"/>
+          <a:ext cx="6493495" cy="1886599"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>207819</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -2465,6 +2291,1469 @@
             </a:rPr>
             <a:t>プロフィール</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>392422</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>55929</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>70802</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>67807</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B52D18E-50C8-4EF9-A8ED-84B0D9E1EFA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3163331" y="4818429"/>
+          <a:ext cx="6181357" cy="392878"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>タイトル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>380516</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>179905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>104137</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>158436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B9877C1-6EF8-45E8-B44C-4453F3102DAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3151425" y="5513905"/>
+          <a:ext cx="6226598" cy="550031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>．質問の内容表示</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>216499</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>93968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>62078</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>186341</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="正方形/長方形 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA1B1A48-6F51-43D8-B576-F7FFE32C2D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6657780" y="5237468"/>
+          <a:ext cx="1214798" cy="282873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タグ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>188277</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>78799</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>187128</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>189506</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65571CB6-F544-43E4-B676-024C70F2E495}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5260340" y="5222299"/>
+          <a:ext cx="1094226" cy="301207"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>質問日時</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>263319</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>92540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>51752</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>174436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{383F31AA-D102-4412-B081-886E300C4E60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8151751" y="5236040"/>
+          <a:ext cx="1173887" cy="272396"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>解決</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>/</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>未解決</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>152616</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104991</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>70615</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DF544D0-539A-4662-AB47-4A56EF64D889}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8236960" y="4867491"/>
+          <a:ext cx="1013374" cy="261937"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>編集ボタン</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25977</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25977</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DA7D512-3556-48BC-8B9C-353B042AB6A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3056659" y="4554682"/>
+          <a:ext cx="1255568" cy="233795"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>自分の質問一覧</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>178594</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="吹き出し: 円形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BF715BE-4D77-4AC2-AD71-3702EE18CF00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="464344" y="4560094"/>
+          <a:ext cx="2262187" cy="988218"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 76824"/>
+            <a:gd name="adj2" fmla="val 33585"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>複数の質問がある場合、その下に表示される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>130969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>35718</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53AF885B-6034-4BDD-A9F9-E0EED58FB414}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10167937" y="2416969"/>
+          <a:ext cx="416719" cy="3607593"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>スクロールバー</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>241069</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>241069</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>150450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="テキスト ボックス 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297DBCF0-C046-45EC-81FF-F278A2D68B0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5039288" y="5216019"/>
+          <a:ext cx="273844" cy="268431"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>9</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>194310</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>468153</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1FA2844-A169-4B7C-9473-345248A1176E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2932748" y="4831557"/>
+          <a:ext cx="273843" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>330042</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16669</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>603885</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0A7733D-4E01-42CE-8629-91D66DEBCB81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3068480" y="5541169"/>
+          <a:ext cx="273843" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>207300</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>103911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>207300</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>20567</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="テキスト ボックス 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA8BD450-CD2F-45C2-9AF3-FEA9E08163A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8017800" y="4675911"/>
+          <a:ext cx="273844" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>145817</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72519</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="テキスト ボックス 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{351E0257-7B4C-42E4-9F78-8F8F4EF51991}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6313255" y="5025519"/>
+          <a:ext cx="425681" cy="332293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>181537</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>83343</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>11907</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCEAD19A-AD43-47B1-A42F-92AB2AE495BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7718193" y="4976813"/>
+          <a:ext cx="449494" cy="369094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>65416</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>62790</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83182926-B343-4709-96FA-98A74E46FE29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="613104" y="1777290"/>
+          <a:ext cx="446551" cy="389647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>17790</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAED435-9C92-43F1-8BAA-649BA07EAADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="565478" y="2324978"/>
+          <a:ext cx="446552" cy="353928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>14</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>148761</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>169946</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF14ADD-C6E9-4706-B32F-B36B6A160EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="696449" y="5884946"/>
+          <a:ext cx="387020" cy="425365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>15</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>160667</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>62792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>107157</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1ABB524-230E-4C83-BC2E-443549D976B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10435761" y="2158292"/>
+          <a:ext cx="458458" cy="425365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>16</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>205348</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>143956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>107155</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1921905B-D325-4D32-AC35-3B5C7A01DE58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4729723" y="1477456"/>
+          <a:ext cx="449495" cy="403731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2794,10 +4083,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN109"/>
+  <dimension ref="A1:AN116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AE2"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2826,7 +4115,7 @@
       <c r="L1" s="30"/>
       <c r="M1" s="30"/>
       <c r="N1" s="31" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="O1" s="31"/>
       <c r="P1" s="31"/>
@@ -2841,7 +4130,7 @@
       </c>
       <c r="X1" s="31"/>
       <c r="Y1" s="31" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="Z1" s="31"/>
       <c r="AA1" s="31"/>
@@ -2849,10 +4138,10 @@
       <c r="AC1" s="31"/>
       <c r="AD1" s="31"/>
       <c r="AE1" s="31"/>
-      <c r="AF1" s="45" t="s">
+      <c r="AF1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="45"/>
+      <c r="AG1" s="46"/>
       <c r="AH1" s="38"/>
       <c r="AI1" s="38"/>
       <c r="AJ1" s="38"/>
@@ -2878,7 +4167,7 @@
       <c r="L2" s="40"/>
       <c r="M2" s="40"/>
       <c r="N2" s="41" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="O2" s="41"/>
       <c r="P2" s="41"/>
@@ -2892,7 +4181,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="41"/>
-      <c r="Y2" s="46">
+      <c r="Y2" s="42">
         <v>44356</v>
       </c>
       <c r="Z2" s="41"/>
@@ -2901,17 +4190,17 @@
       <c r="AC2" s="41"/>
       <c r="AD2" s="41"/>
       <c r="AE2" s="41"/>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="42"/>
-      <c r="AH2" s="43"/>
-      <c r="AI2" s="43"/>
-      <c r="AJ2" s="43"/>
-      <c r="AK2" s="43"/>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="44"/>
+      <c r="AG2" s="43"/>
+      <c r="AH2" s="44"/>
+      <c r="AI2" s="44"/>
+      <c r="AJ2" s="44"/>
+      <c r="AK2" s="44"/>
+      <c r="AL2" s="44"/>
+      <c r="AM2" s="44"/>
+      <c r="AN2" s="45"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="27"/>
@@ -6115,7 +7404,7 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
@@ -6127,13 +7416,11 @@
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16" t="s">
-        <v>50</v>
-      </c>
+      <c r="O79" s="16"/>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
@@ -6167,7 +7454,7 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
@@ -6179,13 +7466,11 @@
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16" t="s">
-        <v>50</v>
-      </c>
+      <c r="O80" s="16"/>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -6219,24 +7504,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -6246,13 +7531,13 @@
       <c r="U81" s="16"/>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -6275,24 +7560,24 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -6302,13 +7587,13 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -6331,23 +7616,25 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="16"/>
+      <c r="O83" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="19"/>
@@ -6355,11 +7642,15 @@
       <c r="T83" s="19"/>
       <c r="U83" s="16"/>
       <c r="V83" s="19"/>
-      <c r="W83" s="16"/>
+      <c r="W83" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="X83" s="17"/>
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
-      <c r="AA83" s="16"/>
+      <c r="AA83" s="16" t="s">
+        <v>59</v>
+      </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
       <c r="AD83" s="16"/>
@@ -6381,24 +7672,24 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -6407,11 +7698,15 @@
       <c r="T84" s="19"/>
       <c r="U84" s="16"/>
       <c r="V84" s="19"/>
-      <c r="W84" s="16"/>
+      <c r="W84" s="16" t="s">
+        <v>47</v>
+      </c>
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
-      <c r="AA84" s="16"/>
+      <c r="AA84" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
       <c r="AD84" s="16"/>
@@ -6433,24 +7728,24 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
@@ -6459,11 +7754,15 @@
       <c r="T85" s="19"/>
       <c r="U85" s="16"/>
       <c r="V85" s="19"/>
-      <c r="W85" s="16"/>
+      <c r="W85" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="X85" s="17"/>
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
-      <c r="AA85" s="16"/>
+      <c r="AA85" s="16" t="s">
+        <v>72</v>
+      </c>
       <c r="AB85" s="17"/>
       <c r="AC85" s="19"/>
       <c r="AD85" s="16"/>
@@ -6485,24 +7784,24 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
       <c r="O86" s="16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="P86" s="17"/>
       <c r="Q86" s="17"/>
@@ -6511,11 +7810,15 @@
       <c r="T86" s="19"/>
       <c r="U86" s="16"/>
       <c r="V86" s="19"/>
-      <c r="W86" s="16"/>
+      <c r="W86" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="X86" s="17"/>
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
-      <c r="AA86" s="16"/>
+      <c r="AA86" s="16" t="s">
+        <v>68</v>
+      </c>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
       <c r="AD86" s="16"/>
@@ -6533,19 +7836,29 @@
     <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="14"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="16"/>
+      <c r="C87" s="15">
+        <v>9</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
-      <c r="H87" s="16"/>
+      <c r="H87" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
       <c r="K87" s="19"/>
-      <c r="L87" s="16"/>
+      <c r="L87" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
-      <c r="O87" s="16"/>
+      <c r="O87" s="16" t="s">
+        <v>71</v>
+      </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
       <c r="R87" s="19"/>
@@ -6553,11 +7866,15 @@
       <c r="T87" s="19"/>
       <c r="U87" s="16"/>
       <c r="V87" s="19"/>
-      <c r="W87" s="16"/>
+      <c r="W87" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
-      <c r="AA87" s="16"/>
+      <c r="AA87" s="16" t="s">
+        <v>69</v>
+      </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
       <c r="AD87" s="16"/>
@@ -6575,19 +7892,29 @@
     <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
+      <c r="C88" s="15">
+        <v>10</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>70</v>
+      </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
-      <c r="H88" s="16"/>
+      <c r="H88" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
       <c r="K88" s="19"/>
-      <c r="L88" s="16"/>
+      <c r="L88" s="16" t="s">
+        <v>41</v>
+      </c>
       <c r="M88" s="17"/>
       <c r="N88" s="19"/>
-      <c r="O88" s="16"/>
+      <c r="O88" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="P88" s="17"/>
       <c r="Q88" s="17"/>
       <c r="R88" s="19"/>
@@ -6595,14 +7922,20 @@
       <c r="T88" s="19"/>
       <c r="U88" s="16"/>
       <c r="V88" s="19"/>
-      <c r="W88" s="16"/>
+      <c r="W88" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="X88" s="17"/>
       <c r="Y88" s="17"/>
       <c r="Z88" s="19"/>
-      <c r="AA88" s="16"/>
+      <c r="AA88" s="16" t="s">
+        <v>79</v>
+      </c>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
-      <c r="AD88" s="16"/>
+      <c r="AD88" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="AE88" s="17"/>
       <c r="AF88" s="17"/>
       <c r="AG88" s="17"/>
@@ -6617,19 +7950,29 @@
     <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="16"/>
+      <c r="C89" s="15">
+        <v>11</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
-      <c r="H89" s="16"/>
+      <c r="H89" s="16" t="s">
+        <v>76</v>
+      </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
-      <c r="L89" s="16"/>
+      <c r="L89" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
-      <c r="O89" s="16"/>
+      <c r="O89" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
       <c r="R89" s="19"/>
@@ -6637,11 +7980,15 @@
       <c r="T89" s="19"/>
       <c r="U89" s="16"/>
       <c r="V89" s="19"/>
-      <c r="W89" s="16"/>
+      <c r="W89" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="X89" s="17"/>
       <c r="Y89" s="17"/>
       <c r="Z89" s="19"/>
-      <c r="AA89" s="16"/>
+      <c r="AA89" s="16" t="s">
+        <v>81</v>
+      </c>
       <c r="AB89" s="17"/>
       <c r="AC89" s="19"/>
       <c r="AD89" s="16"/>
@@ -6659,16 +8006,24 @@
     <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
+      <c r="C90" s="15">
+        <v>12</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
-      <c r="H90" s="16"/>
+      <c r="H90" s="16" t="s">
+        <v>30</v>
+      </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
-      <c r="L90" s="16"/>
+      <c r="L90" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
       <c r="O90" s="16"/>
@@ -6701,16 +8056,24 @@
     <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="16"/>
+      <c r="C91" s="15">
+        <v>13</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
-      <c r="H91" s="16"/>
+      <c r="H91" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
-      <c r="L91" s="16"/>
+      <c r="L91" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="M91" s="17"/>
       <c r="N91" s="19"/>
       <c r="O91" s="16"/>
@@ -6743,16 +8106,24 @@
     <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="14"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="16"/>
+      <c r="C92" s="15">
+        <v>14</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
-      <c r="H92" s="16"/>
+      <c r="H92" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
-      <c r="L92" s="16"/>
+      <c r="L92" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="M92" s="17"/>
       <c r="N92" s="19"/>
       <c r="O92" s="16"/>
@@ -6785,16 +8156,24 @@
     <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="16"/>
+      <c r="C93" s="15">
+        <v>15</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="15"/>
-      <c r="H93" s="16"/>
+      <c r="H93" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I93" s="18"/>
       <c r="J93" s="17"/>
       <c r="K93" s="19"/>
-      <c r="L93" s="16"/>
+      <c r="L93" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="M93" s="17"/>
       <c r="N93" s="19"/>
       <c r="O93" s="16"/>
@@ -6827,18 +8206,26 @@
     <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="14"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="16"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="15"/>
-      <c r="H94" s="16"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="17"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="19"/>
+      <c r="C94" s="15">
+        <v>16</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="47"/>
+      <c r="H94" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="47"/>
+      <c r="L94" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="47"/>
       <c r="O94" s="16"/>
       <c r="P94" s="17"/>
       <c r="Q94" s="17"/>
@@ -7455,46 +8842,340 @@
       <c r="AN108" s="7"/>
     </row>
     <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-      <c r="T109" s="12"/>
-      <c r="U109" s="12"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="12"/>
-      <c r="Y109" s="12"/>
-      <c r="Z109" s="12"/>
-      <c r="AA109" s="12"/>
-      <c r="AB109" s="12"/>
-      <c r="AC109" s="12"/>
-      <c r="AD109" s="12"/>
-      <c r="AE109" s="12"/>
-      <c r="AF109" s="12"/>
-      <c r="AG109" s="12"/>
-      <c r="AH109" s="12"/>
-      <c r="AI109" s="12"/>
-      <c r="AJ109" s="12"/>
-      <c r="AK109" s="12"/>
-      <c r="AL109" s="12"/>
-      <c r="AM109" s="12"/>
-      <c r="AN109" s="13"/>
+      <c r="A109" s="6"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="19"/>
+      <c r="L109" s="16"/>
+      <c r="M109" s="17"/>
+      <c r="N109" s="19"/>
+      <c r="O109" s="16"/>
+      <c r="P109" s="17"/>
+      <c r="Q109" s="17"/>
+      <c r="R109" s="19"/>
+      <c r="S109" s="16"/>
+      <c r="T109" s="19"/>
+      <c r="U109" s="16"/>
+      <c r="V109" s="19"/>
+      <c r="W109" s="16"/>
+      <c r="X109" s="17"/>
+      <c r="Y109" s="17"/>
+      <c r="Z109" s="19"/>
+      <c r="AA109" s="16"/>
+      <c r="AB109" s="17"/>
+      <c r="AC109" s="19"/>
+      <c r="AD109" s="16"/>
+      <c r="AE109" s="17"/>
+      <c r="AF109" s="17"/>
+      <c r="AG109" s="17"/>
+      <c r="AH109" s="17"/>
+      <c r="AI109" s="17"/>
+      <c r="AJ109" s="17"/>
+      <c r="AK109" s="17"/>
+      <c r="AL109" s="17"/>
+      <c r="AM109" s="20"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="6"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="18"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="19"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="17"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="16"/>
+      <c r="P110" s="17"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="19"/>
+      <c r="S110" s="16"/>
+      <c r="T110" s="19"/>
+      <c r="U110" s="16"/>
+      <c r="V110" s="19"/>
+      <c r="W110" s="16"/>
+      <c r="X110" s="17"/>
+      <c r="Y110" s="17"/>
+      <c r="Z110" s="19"/>
+      <c r="AA110" s="16"/>
+      <c r="AB110" s="17"/>
+      <c r="AC110" s="19"/>
+      <c r="AD110" s="16"/>
+      <c r="AE110" s="17"/>
+      <c r="AF110" s="17"/>
+      <c r="AG110" s="17"/>
+      <c r="AH110" s="17"/>
+      <c r="AI110" s="17"/>
+      <c r="AJ110" s="17"/>
+      <c r="AK110" s="17"/>
+      <c r="AL110" s="17"/>
+      <c r="AM110" s="20"/>
+      <c r="AN110" s="7"/>
+    </row>
+    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="18"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="19"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="17"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="16"/>
+      <c r="P111" s="17"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="19"/>
+      <c r="S111" s="16"/>
+      <c r="T111" s="19"/>
+      <c r="U111" s="16"/>
+      <c r="V111" s="19"/>
+      <c r="W111" s="16"/>
+      <c r="X111" s="17"/>
+      <c r="Y111" s="17"/>
+      <c r="Z111" s="19"/>
+      <c r="AA111" s="16"/>
+      <c r="AB111" s="17"/>
+      <c r="AC111" s="19"/>
+      <c r="AD111" s="16"/>
+      <c r="AE111" s="17"/>
+      <c r="AF111" s="17"/>
+      <c r="AG111" s="17"/>
+      <c r="AH111" s="17"/>
+      <c r="AI111" s="17"/>
+      <c r="AJ111" s="17"/>
+      <c r="AK111" s="17"/>
+      <c r="AL111" s="17"/>
+      <c r="AM111" s="20"/>
+      <c r="AN111" s="7"/>
+    </row>
+    <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="6"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="18"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="17"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="16"/>
+      <c r="P112" s="17"/>
+      <c r="Q112" s="17"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="16"/>
+      <c r="T112" s="19"/>
+      <c r="U112" s="16"/>
+      <c r="V112" s="19"/>
+      <c r="W112" s="16"/>
+      <c r="X112" s="17"/>
+      <c r="Y112" s="17"/>
+      <c r="Z112" s="19"/>
+      <c r="AA112" s="16"/>
+      <c r="AB112" s="17"/>
+      <c r="AC112" s="19"/>
+      <c r="AD112" s="16"/>
+      <c r="AE112" s="17"/>
+      <c r="AF112" s="17"/>
+      <c r="AG112" s="17"/>
+      <c r="AH112" s="17"/>
+      <c r="AI112" s="17"/>
+      <c r="AJ112" s="17"/>
+      <c r="AK112" s="17"/>
+      <c r="AL112" s="17"/>
+      <c r="AM112" s="20"/>
+      <c r="AN112" s="7"/>
+    </row>
+    <row r="113" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="6"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="18"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="19"/>
+      <c r="L113" s="16"/>
+      <c r="M113" s="17"/>
+      <c r="N113" s="19"/>
+      <c r="O113" s="16"/>
+      <c r="P113" s="17"/>
+      <c r="Q113" s="17"/>
+      <c r="R113" s="19"/>
+      <c r="S113" s="16"/>
+      <c r="T113" s="19"/>
+      <c r="U113" s="16"/>
+      <c r="V113" s="19"/>
+      <c r="W113" s="16"/>
+      <c r="X113" s="17"/>
+      <c r="Y113" s="17"/>
+      <c r="Z113" s="19"/>
+      <c r="AA113" s="16"/>
+      <c r="AB113" s="17"/>
+      <c r="AC113" s="19"/>
+      <c r="AD113" s="16"/>
+      <c r="AE113" s="17"/>
+      <c r="AF113" s="17"/>
+      <c r="AG113" s="17"/>
+      <c r="AH113" s="17"/>
+      <c r="AI113" s="17"/>
+      <c r="AJ113" s="17"/>
+      <c r="AK113" s="17"/>
+      <c r="AL113" s="17"/>
+      <c r="AM113" s="20"/>
+      <c r="AN113" s="7"/>
+    </row>
+    <row r="114" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="6"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="18"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="19"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="17"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="16"/>
+      <c r="P114" s="17"/>
+      <c r="Q114" s="17"/>
+      <c r="R114" s="19"/>
+      <c r="S114" s="16"/>
+      <c r="T114" s="19"/>
+      <c r="U114" s="16"/>
+      <c r="V114" s="19"/>
+      <c r="W114" s="16"/>
+      <c r="X114" s="17"/>
+      <c r="Y114" s="17"/>
+      <c r="Z114" s="19"/>
+      <c r="AA114" s="16"/>
+      <c r="AB114" s="17"/>
+      <c r="AC114" s="19"/>
+      <c r="AD114" s="16"/>
+      <c r="AE114" s="17"/>
+      <c r="AF114" s="17"/>
+      <c r="AG114" s="17"/>
+      <c r="AH114" s="17"/>
+      <c r="AI114" s="17"/>
+      <c r="AJ114" s="17"/>
+      <c r="AK114" s="17"/>
+      <c r="AL114" s="17"/>
+      <c r="AM114" s="20"/>
+      <c r="AN114" s="7"/>
+    </row>
+    <row r="115" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="6"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="19"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="17"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="16"/>
+      <c r="P115" s="17"/>
+      <c r="Q115" s="17"/>
+      <c r="R115" s="19"/>
+      <c r="S115" s="16"/>
+      <c r="T115" s="19"/>
+      <c r="U115" s="16"/>
+      <c r="V115" s="19"/>
+      <c r="W115" s="16"/>
+      <c r="X115" s="17"/>
+      <c r="Y115" s="17"/>
+      <c r="Z115" s="19"/>
+      <c r="AA115" s="16"/>
+      <c r="AB115" s="17"/>
+      <c r="AC115" s="19"/>
+      <c r="AD115" s="16"/>
+      <c r="AE115" s="17"/>
+      <c r="AF115" s="17"/>
+      <c r="AG115" s="17"/>
+      <c r="AH115" s="17"/>
+      <c r="AI115" s="17"/>
+      <c r="AJ115" s="17"/>
+      <c r="AK115" s="17"/>
+      <c r="AL115" s="17"/>
+      <c r="AM115" s="20"/>
+      <c r="AN115" s="7"/>
+    </row>
+    <row r="116" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="11"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="12"/>
+      <c r="AA116" s="12"/>
+      <c r="AB116" s="12"/>
+      <c r="AC116" s="12"/>
+      <c r="AD116" s="12"/>
+      <c r="AE116" s="12"/>
+      <c r="AF116" s="12"/>
+      <c r="AG116" s="12"/>
+      <c r="AH116" s="12"/>
+      <c r="AI116" s="12"/>
+      <c r="AJ116" s="12"/>
+      <c r="AK116" s="12"/>
+      <c r="AL116" s="12"/>
+      <c r="AM116" s="12"/>
+      <c r="AN116" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/外部設計関連/外部設計書_機能名 - マイページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - マイページ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D03A32-D722-484A-BB05-EDE266B94C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8DD26F-02DB-4993-85C9-FC62A0570EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -453,10 +453,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>タグ</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>q_title</t>
   </si>
   <si>
@@ -464,10 +460,6 @@
   </si>
   <si>
     <t>q_date</t>
-  </si>
-  <si>
-    <t>question_tag</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>date</t>
@@ -508,20 +500,83 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>q_tag01~05</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>いくつタグをつけられるかわからない</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>done_tag</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>int</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag01</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>question_tag5</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ1</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ2</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ3</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ4</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>質問タグ5</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>q_tag02</t>
+  </si>
+  <si>
+    <t>q_tag03</t>
+  </si>
+  <si>
+    <t>q_tag04</t>
+  </si>
+  <si>
+    <t>q_tag05</t>
   </si>
 </sst>
 </file>
@@ -950,6 +1005,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1028,9 +1086,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1061,8 +1116,8 @@
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>10824</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>118803</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1077,8 +1132,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="950076" y="1275615"/>
-          <a:ext cx="9883529" cy="5129688"/>
+          <a:off x="957220" y="1275615"/>
+          <a:ext cx="9959729" cy="5763360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1113,14 +1168,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>130969</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
       <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1135,8 +1190,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="6167437"/>
-          <a:ext cx="9465469" cy="428625"/>
+          <a:off x="959644" y="6586537"/>
+          <a:ext cx="9958387" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1175,15 +1230,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>130969</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:colOff>121444</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>135731</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>11906</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>2381</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1198,8 +1253,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="952500" y="1488281"/>
-          <a:ext cx="9465469" cy="702469"/>
+          <a:off x="950119" y="1278731"/>
+          <a:ext cx="9958387" cy="702469"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1301,15 +1356,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>35718</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>54768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1324,8 +1379,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4429125" y="1559718"/>
-          <a:ext cx="2286000" cy="559594"/>
+          <a:off x="5095875" y="1388268"/>
+          <a:ext cx="2305050" cy="559594"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -2153,15 +2208,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>216219</xdr:colOff>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>173182</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>268433</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>154781</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2176,8 +2231,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2954657" y="4554682"/>
-          <a:ext cx="6493495" cy="1886599"/>
+          <a:off x="2838450" y="4554682"/>
+          <a:ext cx="6877049" cy="2141393"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2362,15 +2417,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>380516</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>179905</xdr:rowOff>
+      <xdr:colOff>447191</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>37030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>104137</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>158436</xdr:rowOff>
+      <xdr:colOff>170812</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>15561</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2385,8 +2440,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3151425" y="5513905"/>
-          <a:ext cx="6226598" cy="550031"/>
+          <a:off x="3209441" y="6133030"/>
+          <a:ext cx="6210146" cy="550031"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2414,12 +2469,8 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>9</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>．質問の内容表示</a:t>
+            <a:t>質問の内容表示</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2428,16 +2479,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>216499</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>93968</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>45049</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17768</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>62078</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>186341</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110141</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2452,8 +2503,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6657780" y="5237468"/>
-          <a:ext cx="1214798" cy="282873"/>
+          <a:off x="4597999" y="5732768"/>
+          <a:ext cx="783626" cy="282873"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2484,6 +2535,11 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>タグ</a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>02</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2491,16 +2547,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>188277</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>426402</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>78799</xdr:rowOff>
+      <xdr:rowOff>145474</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>187128</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>189506</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>15678</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>65681</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2515,8 +2571,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5260340" y="5222299"/>
-          <a:ext cx="1094226" cy="301207"/>
+          <a:off x="3188652" y="5288974"/>
+          <a:ext cx="1103751" cy="301207"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2554,16 +2610,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>263319</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>149019</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>92540</xdr:rowOff>
+      <xdr:rowOff>168740</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>51752</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>174436</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>213677</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60136</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2578,8 +2634,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8151751" y="5236040"/>
-          <a:ext cx="1173887" cy="272396"/>
+          <a:off x="4701969" y="5312240"/>
+          <a:ext cx="1169558" cy="272396"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2763,16 +2819,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>178594</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>150019</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>261937</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2787,13 +2843,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="464344" y="4560094"/>
-          <a:ext cx="2262187" cy="988218"/>
+          <a:off x="552450" y="3579019"/>
+          <a:ext cx="2281237" cy="988218"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeEllipseCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val 76824"/>
-            <a:gd name="adj2" fmla="val 33585"/>
+            <a:gd name="adj1" fmla="val 56782"/>
+            <a:gd name="adj2" fmla="val 75031"/>
           </a:avLst>
         </a:prstGeom>
       </xdr:spPr>
@@ -2892,16 +2948,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>241069</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>174394</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>72519</xdr:rowOff>
+      <xdr:rowOff>43944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>241069</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>450619</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>150450</xdr:rowOff>
+      <xdr:rowOff>121875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2916,8 +2972,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5039288" y="5216019"/>
-          <a:ext cx="273844" cy="268431"/>
+          <a:off x="2936644" y="5187444"/>
+          <a:ext cx="276225" cy="268431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3051,15 +3107,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>330042</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>16669</xdr:rowOff>
+      <xdr:colOff>215742</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>603885</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>489585</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3074,7 +3130,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3068480" y="5541169"/>
+          <a:off x="2977992" y="5941219"/>
           <a:ext cx="273843" cy="297656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3208,16 +3264,762 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>145817</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>72519</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>238687</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
     </xdr:from>
     <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>140493</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCEAD19A-AD43-47B1-A42F-92AB2AE495BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4239187" y="5538788"/>
+          <a:ext cx="454256" cy="347662"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>151141</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83182926-B343-4709-96FA-98A74E46FE29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6637666" y="5492040"/>
+          <a:ext cx="448933" cy="389647"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>13</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>208290</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>153278</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>126206</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAED435-9C92-43F1-8BAA-649BA07EAADB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7799715" y="5487278"/>
+          <a:ext cx="448934" cy="353928"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>14</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139236</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>65171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109536</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF14ADD-C6E9-4706-B32F-B36B6A160EB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4415961" y="5018171"/>
+          <a:ext cx="389402" cy="425365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>15</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74942</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>261938</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>59532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="テキスト ボックス 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1ABB524-230E-4C83-BC2E-443549D976B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="627392" y="1729667"/>
+          <a:ext cx="463221" cy="425365"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>17</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>33898</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>172531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>211930</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="テキスト ボックス 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1921905B-D325-4D32-AC35-3B5C7A01DE58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5415523" y="5506531"/>
+          <a:ext cx="454257" cy="403731"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>12</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>64099</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110141</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="正方形/長方形 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EFBD451-6944-4E28-A731-A1780D4809ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5721949" y="5732768"/>
+          <a:ext cx="869351" cy="282873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タグ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>03</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>121249</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>8243</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>100616</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="正方形/長方形 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C97004F-A9E9-4F8E-920E-A663B5BFD349}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7988899" y="5723243"/>
+          <a:ext cx="793151" cy="282873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タグ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>05</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>473674</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>27293</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>119666</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C5B4168-4B32-4B9D-B0AF-931BC428D35D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3235924" y="5742293"/>
+          <a:ext cx="955076" cy="282873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タグ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>01</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>23811</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:colOff>149824</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>110141</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{022510B2-B496-4F48-86DD-210FABF7F36C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6912574" y="5732768"/>
+          <a:ext cx="859826" cy="282873"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タグ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>04</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>145817</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15369</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3232,8 +4034,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6313255" y="5025519"/>
-          <a:ext cx="425681" cy="332293"/>
+          <a:off x="2908067" y="5539869"/>
+          <a:ext cx="430444" cy="332293"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3287,23 +4089,89 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>181537</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>23813</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>83343</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>11907</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="テキスト ボックス 45">
+        <xdr:cNvPr id="13" name="吹き出し: 円形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCEAD19A-AD43-47B1-A42F-92AB2AE495BF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{442856F2-28A3-402E-A286-6748E556057F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391650" y="5153025"/>
+          <a:ext cx="2514600" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -75529"/>
+            <a:gd name="adj2" fmla="val 53929"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>質問時に付けられたタグの数だけ表示される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>17792</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>119942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>204788</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>164307</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="テキスト ボックス 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6413665-62B9-4D77-9D7A-6ACA094547A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3311,8 +4179,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7718193" y="4976813"/>
-          <a:ext cx="449494" cy="369094"/>
+          <a:off x="570242" y="2215442"/>
+          <a:ext cx="463221" cy="425365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3352,7 +4220,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>11</a:t>
+            <a:t>18</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -3367,22 +4235,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>65416</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>62790</xdr:rowOff>
+      <xdr:colOff>141617</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>5642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238124</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>52388</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>50007</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="テキスト ボックス 46">
+        <xdr:cNvPr id="55" name="テキスト ボックス 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83182926-B343-4709-96FA-98A74E46FE29}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38EA9944-C273-4951-9600-A87DD12672BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3390,8 +4258,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="613104" y="1777290"/>
-          <a:ext cx="446551" cy="389647"/>
+          <a:off x="694067" y="6292142"/>
+          <a:ext cx="463221" cy="425365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3431,7 +4299,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>13</a:t>
+            <a:t>19</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -3445,23 +4313,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>17790</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>38978</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>132092</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138992</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>42863</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>183357</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="テキスト ボックス 47">
+        <xdr:cNvPr id="56" name="テキスト ボックス 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FAED435-9C92-43F1-8BAA-649BA07EAADB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03FD3FA-2651-4265-BDEF-1AF7F1C703D6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3469,8 +4337,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="565478" y="2324978"/>
-          <a:ext cx="446552" cy="353928"/>
+          <a:off x="10209542" y="2043992"/>
+          <a:ext cx="463221" cy="425365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3510,7 +4378,7 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>14</a:t>
+            <a:t>20</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -3524,23 +4392,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>148761</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>169946</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>198767</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>186617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>261938</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>40482</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="テキスト ボックス 48">
+        <xdr:cNvPr id="57" name="テキスト ボックス 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCF14ADD-C6E9-4706-B32F-B36B6A160EB6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9983D8EF-6F8E-48E5-989E-23E6E983FE0F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3548,87 +4416,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="696449" y="5884946"/>
-          <a:ext cx="387020" cy="425365"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>15</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>160667</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>62792</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>71438</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>107157</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="テキスト ボックス 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1ABB524-230E-4C83-BC2E-443549D976B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10435761" y="2158292"/>
-          <a:ext cx="458458" cy="425365"/>
+          <a:off x="5027942" y="1139117"/>
+          <a:ext cx="463221" cy="425365"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3669,85 +4458,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>16</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>205348</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>143956</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>107155</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>166687</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="テキスト ボックス 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1921905B-D325-4D32-AC35-3B5C7A01DE58}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4729723" y="1477456"/>
-          <a:ext cx="449495" cy="403731"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>12</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
             <a:solidFill>
@@ -4083,10 +4793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN116"/>
+  <dimension ref="A1:AN120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4097,154 +4807,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="30" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31" t="s">
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-      <c r="W1" s="31" t="s">
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31" t="s">
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="31"/>
-      <c r="AB1" s="31"/>
-      <c r="AC1" s="31"/>
-      <c r="AD1" s="31"/>
-      <c r="AE1" s="31"/>
-      <c r="AF1" s="46" t="s">
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="38"/>
-      <c r="AK1" s="38"/>
-      <c r="AL1" s="38"/>
-      <c r="AM1" s="38"/>
-      <c r="AN1" s="39"/>
+      <c r="AG1" s="47"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="40"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="40" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="41" t="s">
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="41"/>
-      <c r="W2" s="41" t="s">
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
+      <c r="Q2" s="42"/>
+      <c r="R2" s="42"/>
+      <c r="S2" s="42"/>
+      <c r="T2" s="42"/>
+      <c r="U2" s="42"/>
+      <c r="V2" s="42"/>
+      <c r="W2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="41"/>
-      <c r="Y2" s="42">
+      <c r="X2" s="42"/>
+      <c r="Y2" s="43">
         <v>44356</v>
       </c>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="41"/>
-      <c r="AF2" s="43" t="s">
+      <c r="Z2" s="42"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="42"/>
+      <c r="AC2" s="42"/>
+      <c r="AD2" s="42"/>
+      <c r="AE2" s="42"/>
+      <c r="AF2" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="43"/>
-      <c r="AH2" s="44"/>
-      <c r="AI2" s="44"/>
-      <c r="AJ2" s="44"/>
-      <c r="AK2" s="44"/>
-      <c r="AL2" s="44"/>
-      <c r="AM2" s="44"/>
-      <c r="AN2" s="45"/>
+      <c r="AG2" s="44"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="46"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="32" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="37"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="37"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="37"/>
+      <c r="R3" s="37"/>
+      <c r="S3" s="37"/>
+      <c r="T3" s="37"/>
+      <c r="U3" s="37"/>
+      <c r="V3" s="37"/>
+      <c r="W3" s="37"/>
+      <c r="X3" s="37"/>
+      <c r="Y3" s="37"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="37"/>
+      <c r="AB3" s="37"/>
+      <c r="AC3" s="37"/>
+      <c r="AD3" s="37"/>
+      <c r="AE3" s="37"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="37"/>
+      <c r="AH3" s="37"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="37"/>
+      <c r="AK3" s="37"/>
+      <c r="AL3" s="37"/>
+      <c r="AM3" s="37"/>
+      <c r="AN3" s="38"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -7728,7 +8438,7 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
@@ -7761,7 +8471,7 @@
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AB85" s="17"/>
       <c r="AC85" s="19"/>
@@ -7784,7 +8494,7 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
@@ -7817,7 +8527,7 @@
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
@@ -7840,7 +8550,7 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
@@ -7857,7 +8567,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -7873,7 +8583,7 @@
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
@@ -7896,13 +8606,13 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>66</v>
+        <v>85</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
@@ -7929,13 +8639,11 @@
       <c r="Y88" s="17"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="16" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
-      <c r="AD88" s="16" t="s">
-        <v>80</v>
-      </c>
+      <c r="AD88" s="16"/>
       <c r="AE88" s="17"/>
       <c r="AF88" s="17"/>
       <c r="AG88" s="17"/>
@@ -7954,24 +8662,24 @@
         <v>11</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
       <c r="K89" s="19"/>
       <c r="L89" s="16" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="M89" s="17"/>
       <c r="N89" s="19"/>
       <c r="O89" s="16" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="P89" s="17"/>
       <c r="Q89" s="17"/>
@@ -7987,7 +8695,7 @@
       <c r="Y89" s="17"/>
       <c r="Z89" s="19"/>
       <c r="AA89" s="16" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="AB89" s="17"/>
       <c r="AC89" s="19"/>
@@ -8010,23 +8718,25 @@
         <v>12</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16" t="s">
-        <v>30</v>
+        <v>87</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
       <c r="K90" s="19"/>
       <c r="L90" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M90" s="17"/>
       <c r="N90" s="19"/>
-      <c r="O90" s="16"/>
+      <c r="O90" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="P90" s="17"/>
       <c r="Q90" s="17"/>
       <c r="R90" s="19"/>
@@ -8034,11 +8744,15 @@
       <c r="T90" s="19"/>
       <c r="U90" s="16"/>
       <c r="V90" s="19"/>
-      <c r="W90" s="16"/>
+      <c r="W90" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="X90" s="17"/>
       <c r="Y90" s="17"/>
       <c r="Z90" s="19"/>
-      <c r="AA90" s="16"/>
+      <c r="AA90" s="16" t="s">
+        <v>91</v>
+      </c>
       <c r="AB90" s="17"/>
       <c r="AC90" s="19"/>
       <c r="AD90" s="16"/>
@@ -8060,23 +8774,25 @@
         <v>13</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
       <c r="K91" s="19"/>
       <c r="L91" s="16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M91" s="17"/>
       <c r="N91" s="19"/>
-      <c r="O91" s="16"/>
+      <c r="O91" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="P91" s="17"/>
       <c r="Q91" s="17"/>
       <c r="R91" s="19"/>
@@ -8084,11 +8800,15 @@
       <c r="T91" s="19"/>
       <c r="U91" s="16"/>
       <c r="V91" s="19"/>
-      <c r="W91" s="16"/>
+      <c r="W91" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="X91" s="17"/>
       <c r="Y91" s="17"/>
       <c r="Z91" s="19"/>
-      <c r="AA91" s="16"/>
+      <c r="AA91" s="16" t="s">
+        <v>92</v>
+      </c>
       <c r="AB91" s="17"/>
       <c r="AC91" s="19"/>
       <c r="AD91" s="16"/>
@@ -8110,23 +8830,25 @@
         <v>14</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
       <c r="H92" s="16" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
       <c r="K92" s="19"/>
       <c r="L92" s="16" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M92" s="17"/>
       <c r="N92" s="19"/>
-      <c r="O92" s="16"/>
+      <c r="O92" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="P92" s="17"/>
       <c r="Q92" s="17"/>
       <c r="R92" s="19"/>
@@ -8134,11 +8856,15 @@
       <c r="T92" s="19"/>
       <c r="U92" s="16"/>
       <c r="V92" s="19"/>
-      <c r="W92" s="16"/>
+      <c r="W92" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="X92" s="17"/>
       <c r="Y92" s="17"/>
       <c r="Z92" s="19"/>
-      <c r="AA92" s="16"/>
+      <c r="AA92" s="16" t="s">
+        <v>93</v>
+      </c>
       <c r="AB92" s="17"/>
       <c r="AC92" s="19"/>
       <c r="AD92" s="16"/>
@@ -8160,23 +8886,25 @@
         <v>15</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="15"/>
       <c r="H93" s="16" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="17"/>
       <c r="K93" s="19"/>
       <c r="L93" s="16" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M93" s="17"/>
       <c r="N93" s="19"/>
-      <c r="O93" s="16"/>
+      <c r="O93" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="P93" s="17"/>
       <c r="Q93" s="17"/>
       <c r="R93" s="19"/>
@@ -8184,11 +8912,15 @@
       <c r="T93" s="19"/>
       <c r="U93" s="16"/>
       <c r="V93" s="19"/>
-      <c r="W93" s="16"/>
+      <c r="W93" s="16" t="s">
+        <v>48</v>
+      </c>
       <c r="X93" s="17"/>
       <c r="Y93" s="17"/>
       <c r="Z93" s="19"/>
-      <c r="AA93" s="16"/>
+      <c r="AA93" s="16" t="s">
+        <v>77</v>
+      </c>
       <c r="AB93" s="17"/>
       <c r="AC93" s="19"/>
       <c r="AD93" s="16"/>
@@ -8209,23 +8941,23 @@
       <c r="C94" s="15">
         <v>16</v>
       </c>
-      <c r="D94" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="47"/>
-      <c r="H94" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="47"/>
-      <c r="L94" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M94" s="2"/>
-      <c r="N94" s="47"/>
+      <c r="D94" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" s="18"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="M94" s="17"/>
+      <c r="N94" s="19"/>
       <c r="O94" s="16"/>
       <c r="P94" s="17"/>
       <c r="Q94" s="17"/>
@@ -8256,16 +8988,24 @@
     <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="14"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="16"/>
+      <c r="C95" s="15">
+        <v>17</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="E95" s="17"/>
       <c r="F95" s="17"/>
       <c r="G95" s="15"/>
-      <c r="H95" s="16"/>
+      <c r="H95" s="16" t="s">
+        <v>31</v>
+      </c>
       <c r="I95" s="18"/>
       <c r="J95" s="17"/>
       <c r="K95" s="19"/>
-      <c r="L95" s="16"/>
+      <c r="L95" s="16" t="s">
+        <v>43</v>
+      </c>
       <c r="M95" s="17"/>
       <c r="N95" s="19"/>
       <c r="O95" s="16"/>
@@ -8298,16 +9038,24 @@
     <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="14"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="16"/>
+      <c r="C96" s="15">
+        <v>18</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>36</v>
+      </c>
       <c r="E96" s="17"/>
       <c r="F96" s="17"/>
       <c r="G96" s="15"/>
-      <c r="H96" s="16"/>
+      <c r="H96" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="I96" s="18"/>
       <c r="J96" s="17"/>
       <c r="K96" s="19"/>
-      <c r="L96" s="16"/>
+      <c r="L96" s="16" t="s">
+        <v>44</v>
+      </c>
       <c r="M96" s="17"/>
       <c r="N96" s="19"/>
       <c r="O96" s="16"/>
@@ -8340,16 +9088,24 @@
     <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="14"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="16"/>
+      <c r="C97" s="15">
+        <v>19</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="E97" s="17"/>
       <c r="F97" s="17"/>
       <c r="G97" s="15"/>
-      <c r="H97" s="16"/>
+      <c r="H97" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="I97" s="18"/>
       <c r="J97" s="17"/>
       <c r="K97" s="19"/>
-      <c r="L97" s="16"/>
+      <c r="L97" s="16" t="s">
+        <v>45</v>
+      </c>
       <c r="M97" s="17"/>
       <c r="N97" s="19"/>
       <c r="O97" s="16"/>
@@ -8382,18 +9138,26 @@
     <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="14"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="16"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="15"/>
-      <c r="H98" s="16"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="17"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="17"/>
-      <c r="N98" s="19"/>
+      <c r="C98" s="15">
+        <v>20</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="21"/>
+      <c r="H98" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="21"/>
       <c r="O98" s="16"/>
       <c r="P98" s="17"/>
       <c r="Q98" s="17"/>
@@ -9136,46 +9900,214 @@
       <c r="AN115" s="7"/>
     </row>
     <row r="116" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="11"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
-      <c r="S116" s="12"/>
-      <c r="T116" s="12"/>
-      <c r="U116" s="12"/>
-      <c r="V116" s="12"/>
-      <c r="W116" s="12"/>
-      <c r="X116" s="12"/>
-      <c r="Y116" s="12"/>
-      <c r="Z116" s="12"/>
-      <c r="AA116" s="12"/>
-      <c r="AB116" s="12"/>
-      <c r="AC116" s="12"/>
-      <c r="AD116" s="12"/>
-      <c r="AE116" s="12"/>
-      <c r="AF116" s="12"/>
-      <c r="AG116" s="12"/>
-      <c r="AH116" s="12"/>
-      <c r="AI116" s="12"/>
-      <c r="AJ116" s="12"/>
-      <c r="AK116" s="12"/>
-      <c r="AL116" s="12"/>
-      <c r="AM116" s="12"/>
-      <c r="AN116" s="13"/>
+      <c r="A116" s="6"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="18"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="19"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="17"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="16"/>
+      <c r="P116" s="17"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="19"/>
+      <c r="S116" s="16"/>
+      <c r="T116" s="19"/>
+      <c r="U116" s="16"/>
+      <c r="V116" s="19"/>
+      <c r="W116" s="16"/>
+      <c r="X116" s="17"/>
+      <c r="Y116" s="17"/>
+      <c r="Z116" s="19"/>
+      <c r="AA116" s="16"/>
+      <c r="AB116" s="17"/>
+      <c r="AC116" s="19"/>
+      <c r="AD116" s="16"/>
+      <c r="AE116" s="17"/>
+      <c r="AF116" s="17"/>
+      <c r="AG116" s="17"/>
+      <c r="AH116" s="17"/>
+      <c r="AI116" s="17"/>
+      <c r="AJ116" s="17"/>
+      <c r="AK116" s="17"/>
+      <c r="AL116" s="17"/>
+      <c r="AM116" s="20"/>
+      <c r="AN116" s="7"/>
+    </row>
+    <row r="117" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="6"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="19"/>
+      <c r="L117" s="16"/>
+      <c r="M117" s="17"/>
+      <c r="N117" s="19"/>
+      <c r="O117" s="16"/>
+      <c r="P117" s="17"/>
+      <c r="Q117" s="17"/>
+      <c r="R117" s="19"/>
+      <c r="S117" s="16"/>
+      <c r="T117" s="19"/>
+      <c r="U117" s="16"/>
+      <c r="V117" s="19"/>
+      <c r="W117" s="16"/>
+      <c r="X117" s="17"/>
+      <c r="Y117" s="17"/>
+      <c r="Z117" s="19"/>
+      <c r="AA117" s="16"/>
+      <c r="AB117" s="17"/>
+      <c r="AC117" s="19"/>
+      <c r="AD117" s="16"/>
+      <c r="AE117" s="17"/>
+      <c r="AF117" s="17"/>
+      <c r="AG117" s="17"/>
+      <c r="AH117" s="17"/>
+      <c r="AI117" s="17"/>
+      <c r="AJ117" s="17"/>
+      <c r="AK117" s="17"/>
+      <c r="AL117" s="17"/>
+      <c r="AM117" s="20"/>
+      <c r="AN117" s="7"/>
+    </row>
+    <row r="118" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="6"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="18"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="17"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="16"/>
+      <c r="P118" s="17"/>
+      <c r="Q118" s="17"/>
+      <c r="R118" s="19"/>
+      <c r="S118" s="16"/>
+      <c r="T118" s="19"/>
+      <c r="U118" s="16"/>
+      <c r="V118" s="19"/>
+      <c r="W118" s="16"/>
+      <c r="X118" s="17"/>
+      <c r="Y118" s="17"/>
+      <c r="Z118" s="19"/>
+      <c r="AA118" s="16"/>
+      <c r="AB118" s="17"/>
+      <c r="AC118" s="19"/>
+      <c r="AD118" s="16"/>
+      <c r="AE118" s="17"/>
+      <c r="AF118" s="17"/>
+      <c r="AG118" s="17"/>
+      <c r="AH118" s="17"/>
+      <c r="AI118" s="17"/>
+      <c r="AJ118" s="17"/>
+      <c r="AK118" s="17"/>
+      <c r="AL118" s="17"/>
+      <c r="AM118" s="20"/>
+      <c r="AN118" s="7"/>
+    </row>
+    <row r="119" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="6"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="17"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="16"/>
+      <c r="P119" s="17"/>
+      <c r="Q119" s="17"/>
+      <c r="R119" s="19"/>
+      <c r="S119" s="16"/>
+      <c r="T119" s="19"/>
+      <c r="U119" s="16"/>
+      <c r="V119" s="19"/>
+      <c r="W119" s="16"/>
+      <c r="X119" s="17"/>
+      <c r="Y119" s="17"/>
+      <c r="Z119" s="19"/>
+      <c r="AA119" s="16"/>
+      <c r="AB119" s="17"/>
+      <c r="AC119" s="19"/>
+      <c r="AD119" s="16"/>
+      <c r="AE119" s="17"/>
+      <c r="AF119" s="17"/>
+      <c r="AG119" s="17"/>
+      <c r="AH119" s="17"/>
+      <c r="AI119" s="17"/>
+      <c r="AJ119" s="17"/>
+      <c r="AK119" s="17"/>
+      <c r="AL119" s="17"/>
+      <c r="AM119" s="20"/>
+      <c r="AN119" s="7"/>
+    </row>
+    <row r="120" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="11"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
+      <c r="U120" s="12"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="12"/>
+      <c r="Y120" s="12"/>
+      <c r="Z120" s="12"/>
+      <c r="AA120" s="12"/>
+      <c r="AB120" s="12"/>
+      <c r="AC120" s="12"/>
+      <c r="AD120" s="12"/>
+      <c r="AE120" s="12"/>
+      <c r="AF120" s="12"/>
+      <c r="AG120" s="12"/>
+      <c r="AH120" s="12"/>
+      <c r="AI120" s="12"/>
+      <c r="AJ120" s="12"/>
+      <c r="AK120" s="12"/>
+      <c r="AL120" s="12"/>
+      <c r="AM120" s="12"/>
+      <c r="AN120" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/外部設計関連/外部設計書_機能名 - マイページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - マイページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F8DD26F-02DB-4993-85C9-FC62A0570EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4607F88D-42D6-457B-9C74-B652D3E4B0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="345" windowWidth="10680" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -2533,11 +2533,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タグ</a:t>
+            <a:t>質問タグ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>02</a:t>
+            <a:t>2</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3792,11 +3792,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タグ</a:t>
+            <a:t>質問タグ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>03</a:t>
+            <a:t>3</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3860,11 +3860,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タグ</a:t>
+            <a:t>質問タグ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>05</a:t>
+            <a:t>5</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3928,11 +3928,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タグ</a:t>
+            <a:t>質問タグ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>01</a:t>
+            <a:t>1</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3996,11 +3996,11 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>タグ</a:t>
+            <a:t>質問タグ</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>04</a:t>
+            <a:t>4</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4795,8 +4795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="I15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/外部設計関連/外部設計書_機能名 - マイページ.xlsx
+++ b/外部設計関連/外部設計書_機能名 - マイページ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\外部設計関連\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4607F88D-42D6-457B-9C74-B652D3E4B0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6684AB69-B877-4636-A154-B995DB67ABB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="345" windowWidth="10680" windowHeight="10485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="外部設計書" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="93">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -376,32 +376,10 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>ユーザーID</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー名</t>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>ユーザー種別</t>
-    <rPh sb="4" eb="6">
-      <t>シュベツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>会社名</t>
     <rPh sb="0" eb="3">
       <t>カイシャメイ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>user_id</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -413,17 +391,10 @@
   </si>
   <si>
     <t>user_category</t>
-  </si>
-  <si>
-    <t>user_category</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>company</t>
-  </si>
-  <si>
-    <t>company</t>
-    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>質問タイトル</t>
@@ -577,6 +548,31 @@
   </si>
   <si>
     <t>q_tag05</t>
+  </si>
+  <si>
+    <t>ユーザ－名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>パスワード再入力</t>
+    <rPh sb="5" eb="8">
+      <t>サイニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1494,16 +1490,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>231631</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>30548</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>50829</xdr:rowOff>
+      <xdr:rowOff>124912</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>138545</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>121227</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>212628</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4810</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1518,8 +1514,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4240790" y="2908329"/>
-          <a:ext cx="1292369" cy="260898"/>
+          <a:off x="5121131" y="2982412"/>
+          <a:ext cx="1282747" cy="260898"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1547,9 +1543,10 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ID</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>氏名</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1557,16 +1554,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>243536</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>97414</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>21286</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>65664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>112568</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>168852</xdr:rowOff>
+      <xdr:colOff>165485</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>137102</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1581,8 +1578,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4806877" y="4097914"/>
-          <a:ext cx="2085759" cy="261938"/>
+          <a:off x="4836703" y="4256664"/>
+          <a:ext cx="2070365" cy="261938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1621,15 +1618,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>81999</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95035</xdr:rowOff>
+      <xdr:colOff>92582</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>52702</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>81999</xdr:colOff>
+      <xdr:colOff>92582</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>5976</xdr:rowOff>
+      <xdr:rowOff>154143</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1644,8 +1641,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4645340" y="3905035"/>
-          <a:ext cx="277091" cy="291941"/>
+          <a:off x="4632832" y="4053202"/>
+          <a:ext cx="275167" cy="291941"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1699,16 +1696,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>235658</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>45157</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>155862</xdr:rowOff>
+      <xdr:rowOff>187612</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>235658</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>45158</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>43293</xdr:rowOff>
+      <xdr:rowOff>75043</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1723,8 +1720,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3938502" y="2822862"/>
-          <a:ext cx="273844" cy="268431"/>
+          <a:off x="4860574" y="2854612"/>
+          <a:ext cx="275167" cy="268431"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1778,78 +1775,63 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>8573</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>93733</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>81541</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>110480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>71437</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>10389</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>246304</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>189538</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C411AB44-6FFE-4736-A87A-FA36E7D654AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12F35E3-77F5-4DBE-B58A-FA0A3CA59CAC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5628323" y="2760733"/>
-          <a:ext cx="336708" cy="297656"/>
+          <a:off x="5172124" y="3539480"/>
+          <a:ext cx="1265430" cy="269558"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>4</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1857,78 +1839,63 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>196691</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53637</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>23889</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>196691</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>145256</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>3847</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85628</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10977FA-9171-4431-9F5A-5996DAC0672F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C3830A-E8A2-437D-A248-06A37744ED6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
+        <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3899535" y="3276600"/>
-          <a:ext cx="273844" cy="297656"/>
+          <a:off x="5144220" y="3833889"/>
+          <a:ext cx="1326044" cy="252239"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="lt1"/>
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
+          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>5</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>パスワード再入力</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1936,16 +1903,80 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>222885</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>95973</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>22927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>222885</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>20206</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>116681</xdr:rowOff>
+      <xdr:rowOff>101984</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="正方形/長方形 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D946D359-2FAA-4FA5-A753-E2502B9E25FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5186556" y="3261427"/>
+          <a:ext cx="1300067" cy="269557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>会社名</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>74718</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>115359</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>74719</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>32015</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1960,8 +1991,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5568791" y="3248025"/>
-          <a:ext cx="273844" cy="297656"/>
+          <a:off x="4890135" y="3734859"/>
+          <a:ext cx="275167" cy="297656"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2008,198 +2039,6 @@
               <a:srgbClr val="FF0000"/>
             </a:solidFill>
           </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>240290</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>163397</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>129887</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="正方形/長方形 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F12F35E3-77F5-4DBE-B58A-FA0A3CA59CAC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4249449" y="3401897"/>
-          <a:ext cx="1275052" cy="269558"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>会社名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>222970</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>172056</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>173181</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>43295</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3C3830A-E8A2-437D-A248-06A37744ED6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5894675" y="3410556"/>
-          <a:ext cx="1335665" cy="252239"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>ユーザー種別</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>222972</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>33511</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>147206</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>112568</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="正方形/長方形 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D946D359-2FAA-4FA5-A753-E2502B9E25FE}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5894677" y="2891011"/>
-          <a:ext cx="1309688" cy="269557"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>氏名</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2282,9 +2121,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>69274</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>129886</xdr:rowOff>
+      <xdr:colOff>74084</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2299,8 +2138,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3939887" y="2632363"/>
-          <a:ext cx="3740728" cy="1307523"/>
+          <a:off x="3922569" y="2632363"/>
+          <a:ext cx="3718598" cy="1495137"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4469,6 +4308,164 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>69691</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>186266</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>69692</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>102922</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="テキスト ボックス 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C10977FA-9171-4431-9F5A-5996DAC0672F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4885108" y="3424766"/>
+          <a:ext cx="275167" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>50907</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>93733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>113771</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>10389</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="テキスト ボックス 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C411AB44-6FFE-4736-A87A-FA36E7D654AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4866324" y="3141733"/>
+          <a:ext cx="338030" cy="297656"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>4</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4795,8 +4792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AA84" sqref="AA84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8214,13 +8211,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -8247,7 +8244,7 @@
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -8270,13 +8267,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -8303,7 +8300,7 @@
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -8325,14 +8322,14 @@
       <c r="C83" s="15">
         <v>5</v>
       </c>
-      <c r="D83" s="16" t="s">
-        <v>60</v>
+      <c r="D83" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
@@ -8359,7 +8356,7 @@
       <c r="Y83" s="17"/>
       <c r="Z83" s="19"/>
       <c r="AA83" s="16" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="AB83" s="17"/>
       <c r="AC83" s="19"/>
@@ -8382,13 +8379,13 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
@@ -8414,8 +8411,8 @@
       <c r="X84" s="17"/>
       <c r="Y84" s="17"/>
       <c r="Z84" s="19"/>
-      <c r="AA84" s="16" t="s">
-        <v>61</v>
+      <c r="AA84" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="AB84" s="17"/>
       <c r="AC84" s="19"/>
@@ -8438,13 +8435,13 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
@@ -8471,7 +8468,7 @@
       <c r="Y85" s="17"/>
       <c r="Z85" s="19"/>
       <c r="AA85" s="16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="AB85" s="17"/>
       <c r="AC85" s="19"/>
@@ -8494,13 +8491,13 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
@@ -8527,7 +8524,7 @@
       <c r="Y86" s="17"/>
       <c r="Z86" s="19"/>
       <c r="AA86" s="16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="AB86" s="17"/>
       <c r="AC86" s="19"/>
@@ -8550,13 +8547,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -8567,7 +8564,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -8583,7 +8580,7 @@
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
@@ -8606,13 +8603,13 @@
         <v>10</v>
       </c>
       <c r="D88" s="16" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E88" s="17"/>
       <c r="F88" s="17"/>
       <c r="G88" s="15"/>
       <c r="H88" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I88" s="18"/>
       <c r="J88" s="17"/>
@@ -8639,7 +8636,7 @@
       <c r="Y88" s="17"/>
       <c r="Z88" s="19"/>
       <c r="AA88" s="16" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AB88" s="17"/>
       <c r="AC88" s="19"/>
@@ -8662,13 +8659,13 @@
         <v>11</v>
       </c>
       <c r="D89" s="16" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="E89" s="17"/>
       <c r="F89" s="17"/>
       <c r="G89" s="15"/>
       <c r="H89" s="16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="I89" s="18"/>
       <c r="J89" s="17"/>
@@ -8695,7 +8692,7 @@
       <c r="Y89" s="17"/>
       <c r="Z89" s="19"/>
       <c r="AA89" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AB89" s="17"/>
       <c r="AC89" s="19"/>
@@ -8718,13 +8715,13 @@
         <v>12</v>
       </c>
       <c r="D90" s="16" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E90" s="17"/>
       <c r="F90" s="17"/>
       <c r="G90" s="15"/>
       <c r="H90" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="I90" s="18"/>
       <c r="J90" s="17"/>
@@ -8751,7 +8748,7 @@
       <c r="Y90" s="17"/>
       <c r="Z90" s="19"/>
       <c r="AA90" s="16" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AB90" s="17"/>
       <c r="AC90" s="19"/>
@@ -8774,13 +8771,13 @@
         <v>13</v>
       </c>
       <c r="D91" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E91" s="17"/>
       <c r="F91" s="17"/>
       <c r="G91" s="15"/>
       <c r="H91" s="16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I91" s="18"/>
       <c r="J91" s="17"/>
@@ -8807,7 +8804,7 @@
       <c r="Y91" s="17"/>
       <c r="Z91" s="19"/>
       <c r="AA91" s="16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AB91" s="17"/>
       <c r="AC91" s="19"/>
@@ -8830,13 +8827,13 @@
         <v>14</v>
       </c>
       <c r="D92" s="16" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E92" s="17"/>
       <c r="F92" s="17"/>
       <c r="G92" s="15"/>
       <c r="H92" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I92" s="18"/>
       <c r="J92" s="17"/>
@@ -8863,7 +8860,7 @@
       <c r="Y92" s="17"/>
       <c r="Z92" s="19"/>
       <c r="AA92" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AB92" s="17"/>
       <c r="AC92" s="19"/>
@@ -8886,24 +8883,24 @@
         <v>15</v>
       </c>
       <c r="D93" s="16" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="E93" s="17"/>
       <c r="F93" s="17"/>
       <c r="G93" s="15"/>
       <c r="H93" s="16" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="I93" s="18"/>
       <c r="J93" s="17"/>
       <c r="K93" s="19"/>
       <c r="L93" s="16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M93" s="17"/>
       <c r="N93" s="19"/>
       <c r="O93" s="16" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P93" s="17"/>
       <c r="Q93" s="17"/>
@@ -8919,7 +8916,7 @@
       <c r="Y93" s="17"/>
       <c r="Z93" s="19"/>
       <c r="AA93" s="16" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AB93" s="17"/>
       <c r="AC93" s="19"/>
@@ -9142,19 +9139,19 @@
         <v>20</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
       <c r="G98" s="21"/>
       <c r="H98" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="21"/>
       <c r="L98" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="21"/>
